--- a/po_analysis_by_asin/B0DGVGT3PJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0DGVGT3PJ_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>720</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>24</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>60</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>720</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>36</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>60</v>

--- a/po_analysis_by_asin/B0DGVGT3PJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0DGVGT3PJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -509,7 +510,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -535,6 +536,215 @@
       </c>
       <c r="B4" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>368</v>
+      </c>
+      <c r="C2" t="n">
+        <v>62.36501325868949</v>
+      </c>
+      <c r="D2" t="n">
+        <v>689.657219700605</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>327</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32.57262078994179</v>
+      </c>
+      <c r="D3" t="n">
+        <v>632.8603575657144</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>162</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-139.0981708716037</v>
+      </c>
+      <c r="D4" t="n">
+        <v>450.9992335437506</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-346.1353921898136</v>
+      </c>
+      <c r="D5" t="n">
+        <v>245.9528539410119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-375.4709299920406</v>
+      </c>
+      <c r="D6" t="n">
+        <v>227.2299804352228</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-414.6694559256749</v>
+      </c>
+      <c r="D7" t="n">
+        <v>189.4348241983309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-462.3765935763157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>128.2034982759944</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-516.7439597381905</v>
+      </c>
+      <c r="D9" t="n">
+        <v>82.63089335110094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-536.9554356654284</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90.82313794749193</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-605.1695583568827</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.19779409083752</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-636.0852232660031</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-35.59555275904577</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-684.2399997670816</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-67.31326396914487</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0DGVGT3PJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0DGVGT3PJ_po_data.xlsx
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,16 +568,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -586,12 +576,6 @@
       <c r="B2" t="n">
         <v>368</v>
       </c>
-      <c r="C2" t="n">
-        <v>62.36501325868949</v>
-      </c>
-      <c r="D2" t="n">
-        <v>689.657219700605</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -600,12 +584,6 @@
       <c r="B3" t="n">
         <v>327</v>
       </c>
-      <c r="C3" t="n">
-        <v>32.57262078994179</v>
-      </c>
-      <c r="D3" t="n">
-        <v>632.8603575657144</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -614,12 +592,6 @@
       <c r="B4" t="n">
         <v>162</v>
       </c>
-      <c r="C4" t="n">
-        <v>-139.0981708716037</v>
-      </c>
-      <c r="D4" t="n">
-        <v>450.9992335437506</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -628,12 +600,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-346.1353921898136</v>
-      </c>
-      <c r="D5" t="n">
-        <v>245.9528539410119</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -642,12 +608,6 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>-375.4709299920406</v>
-      </c>
-      <c r="D6" t="n">
-        <v>227.2299804352228</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -656,12 +616,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>-414.6694559256749</v>
-      </c>
-      <c r="D7" t="n">
-        <v>189.4348241983309</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -670,12 +624,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>-462.3765935763157</v>
-      </c>
-      <c r="D8" t="n">
-        <v>128.2034982759944</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -684,12 +632,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-516.7439597381905</v>
-      </c>
-      <c r="D9" t="n">
-        <v>82.63089335110094</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -698,12 +640,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-536.9554356654284</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90.82313794749193</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -712,12 +648,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-605.1695583568827</v>
-      </c>
-      <c r="D11" t="n">
-        <v>18.19779409083752</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -726,12 +656,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-636.0852232660031</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-35.59555275904577</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -739,12 +663,6 @@
       </c>
       <c r="B13" t="n">
         <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-684.2399997670816</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-67.31326396914487</v>
       </c>
     </row>
   </sheetData>
